--- a/src/main/java/corecentra/qaqctool/storage/project_test.xlsx
+++ b/src/main/java/corecentra/qaqctool/storage/project_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS\3_Spring2022\5500\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS\3_Spring2022\5500\old project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB126562-CEB3-4BE1-9673-A4DE210A66E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E822F88B-227B-44F4-B648-B7BFF64C9C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
   <si>
     <t>Node ID</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Capital</t>
   </si>
   <si>
-    <t>324</t>
-  </si>
-  <si>
     <t>Engineering</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
   </si>
   <si>
     <t>District 2 Commissioner</t>
-  </si>
-  <si>
-    <t>PRJ0015</t>
   </si>
   <si>
     <t>Maintain County Roads and Bridges</t>
@@ -743,8 +737,8 @@
   </sheetPr>
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -980,77 +974,75 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="59" x14ac:dyDescent="0.75">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>54</v>
@@ -1062,78 +1054,74 @@
         <v>43</v>
       </c>
       <c r="AB3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="59" x14ac:dyDescent="0.75">
       <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>50</v>
@@ -1145,10 +1133,10 @@
         <v>51</v>
       </c>
       <c r="W4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>54</v>
@@ -1160,16 +1148,16 @@
         <v>43</v>
       </c>
       <c r="AB4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>58</v>
@@ -1177,61 +1165,61 @@
     </row>
     <row r="5" spans="1:32" ht="59" x14ac:dyDescent="0.75">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Q5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>50</v>
@@ -1243,10 +1231,10 @@
         <v>51</v>
       </c>
       <c r="W5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>54</v>
@@ -1258,16 +1246,16 @@
         <v>43</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF5" s="2" t="s">
         <v>58</v>
@@ -1275,61 +1263,59 @@
     </row>
     <row r="6" spans="1:32" ht="59" x14ac:dyDescent="0.75">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>50</v>
@@ -1341,10 +1327,10 @@
         <v>51</v>
       </c>
       <c r="W6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>54</v>
@@ -1356,16 +1342,16 @@
         <v>43</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF6" s="2" t="s">
         <v>58</v>
